--- a/速查/法术速查/5E万法大全.xlsx
+++ b/速查/法术速查/5E万法大全.xlsx
@@ -505,11 +505,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>施法时间：1 反应，当你受到强酸，冷冻，火焰，闪电或雷鸣伤害时
+          <t>施法时间：1 反应，当你受到强酸、冷冻、火焰、闪电、或雷鸣伤害时执行
 施法距离：自身
 法术成分：S
 持续时间：1 轮
-此法术捕获了部分袭来的能量，减轻它对你的效果，并将之储存起来以用在你的下一次近战攻击中。在你的下个回合的开始之前，你对于触发法术的伤害类型具有抗性。此外，在你的下个回合，第一次以近战攻击命中时，目标额外受到 1d6 点触发法术的伤害类型的伤害，同时此法术终结。
+此法术将捕获部分袭来的能量，减轻能量对你的效果，并将捕获的能量储存起来，用以强化你的下一次近战攻击。你获得触发法术的那个伤害类型的抗性，持续直至你的下个回合的开始。此外，在你的下个回合中，你的近战攻击首次命中时，攻击目标将额外受到1d6点伤害，类型与触发法术的伤害类型相同，之后此法术终止。
 升环施法效应：当你使用二环或更高的法术位施放该法术时，使用的法术位每高一环，额外伤害便增加 1d6。</t>
         </is>
       </c>
@@ -1000,9 +1000,9 @@
 施法距离：自身（10 尺半径）
 法术成分：V、S
 持续时间：专注，至多 1 小时
-闪光的屏障环绕你周边 10 尺内的区域并以你为中心移动，其阻绝除不死生物和构装生物之外的生物类型。护罩持续存在至法术终止。
-护罩阻止受影响的生物穿过或进入其内，但受影响的生物可以使用法术，远程武器或触及武器对护罩内部发动攻击。
-若你移动时迫使受影响生物进入护罩内，则法术随之终止。</t>
+一道半径10尺的闪光屏障以你中心展开，并阻隔一切非不死非构装的生物。护罩持续存在至法术终止，且期间会跟随着你一同移动，始终保持以你为中心。
+护罩会阻止受影响生物移动穿过它，也会阻止受影响生物穿过护罩去触及事物，不过受影响的生物仍然可以使用法术、远程武器或触及武器穿过护罩发动攻击。
+若因你的移动导致一个受影响生物进入护罩内，则法术随之终止。</t>
         </is>
       </c>
     </row>
@@ -1874,15 +1874,16 @@
         <is>
           <t>施法时间：1 动作
 施法距离：120 尺
-法术成分：V、S、M（一块蛋壳和一只蛇皮手套）
+法术成分：V、S、M（一块蛋壳和一只蛇鳞手套）
 持续时间：专注，至多 1 分钟
-你在施法距离内指定一处你能看见且未被占据的空间，并在该处创造出一只闪烁着微光的大型手掌。巨手在法术持续时间内维持存在，并听从你的命令模仿你手掌移动的方式进行移动。
-巨手视为一个物件，其 AC 为 20，生命值等于你的生命值上限。如果它的生命值降至 0 则法术提前终止。其力量为 26(+8)，敏捷为10(+0)。巨手并不占据其所在的空间。 　　施展此法术时，你可以令巨手移动至多 60 尺远并造成下列效应之一。你也可以在自己随后的回合里以一个附赠动作完成该效应。
-金刚拳Clenched Fist。 巨手对自身 5 尺内的一个生物或物件发动打击。用你自身的游戏资料发动一次近战法术攻击，并在命中时造成4d8点力场伤害。 
-飞击掌Forceful Hand。 巨手尝试对自身 5 尺内的一个生物进行推挤。用巨手的力量检定与目标的力量（运动）检定作对抗。如果目标为中型或更小的生物则你的检定具有优势。你胜出对抗时，目标将被推开数尺，其具体尺数等于 5 加上你施法属性调整值的五倍。巨手随着目标一起移动，并与之保持 5 尺的距离。
-擒拿掌Grasping Hand。 巨手尝试对自身 5 尺内的一个巨型或更小的生物进行擒抱。该擒抱的计算数据使用巨手的力量值。如果目标体型为中型或更小，则你的检定具有优势。在巨手擒抱目标期间，你可以使用一个附赠动作命令巨手对其进行挤压，并对目标造成 2d6+你的施法属性调整的钝击伤害。
-护身掌Interposing   Hand。 巨手阻挡在你和一名你所选生物中间，直到你给他另一个命令为止。巨手不断移动保持在你和目标中间，使得你相对目标处于半身掩护。如果目标的力量值小于或等于巨手的力量值，则其无法穿过巨手的阻挡。如果其力量值高于巨手，则目标可以穿过巨手所在的空间，不过该空间对该目标视为困难地形。
-升环施法效应：使用六环或更高法术位施展该法术时，你使用的法术位每比五环高一环，则金刚拳的伤害提高 2d8，擒拿掌的伤害提高 2d6。</t>
+你在施法距离内指定一处你能看见且未被占据的空间，并在该处创造出一只闪烁着微光的大型手掌。巨手在法术持续时间内维持存在，并听从你的命令进行移动，模仿你自己手掌的各类动作。
+巨手是一个物件，其AC为20，其生命值等于你的最大生命值。如果它的生命值降至0则法术将提前终止。其力量属性为26（+8），敏捷属性为10（+0）。巨手并不会充满其所在的空间。
+       施展此法术时，你可以令巨手移动至多 60 尺远并造成下列效应之一。你也可以在自己随后的回合里以一个附赠动作再造成下列效应之一。
+金刚拳Clenched Fist。   巨手对自身周围5尺范围内的一个生物（或物件）发动一次打击。此时，巨掌用你的游戏数据发动一次近战法术攻击，此次攻击命中时目标将受到4d8点力场伤害。 
+飞击掌Forceful Hand。   巨手尝试推撞自身周围5尺范围内的一个生物。你使用巨手的力量属性进行一次属性检定，与目标的力量（运动）检定作对抗。如果目标的体型不超过中型，则你的检定具有优势。若你胜出对抗时，目标将目标推动 5+你施法属性调整值的五倍 尺（方向由你选择）。巨手将随着目标一起移动，保持自己处在目标周围5尺的范围内。
+擒拿掌Grasping Hand。   巨手尝试对自身周围5尺范围内的一个体型不超过巨型的生物进行擒抱。你使用巨手的力量属性值来处理本次擒抱。如果目标的体型不超过中型，则你的检定具有优势。在巨手擒抱目标期间，你可以使用一个附赠动作命令巨手对其进行挤压，此时目标将受到 2d6+你的施法属性调整值 点钝击伤害。
+护身掌Interposing   Hand。   你选择一个生物，巨手将持续阻挡在你与该生物中间，直到你给他新的命令为止。巨手不断移动以保持其始终处于你与目标中间，使得相对目标而言，你具有半身掩护。如果目标的力量值小于或等于巨手的力量值，则其无法穿过巨手的阻挡。而如果其力量值高于巨手，则目标可以穿过巨手所在的空间向你走来，不过该空间对该目标而言视为困难地形。
+升环施法效应：使用六环或更高环阶法术位施展此法术时，你使用的法术位每比五环高一环，金刚拳的伤害就会提高2d8点，擒拿掌的伤害就会提高2d6点。</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2028,7 @@
         <is>
           <t>施法时间：1 动作
 施法距离：30 尺
-法术成分：V、S、M（一滴圣水）
+法术成分：V、S、M（几滴圣水）
 持续时间：专注，至多 1 分钟
 你用言语祝福施法距离内至多三个生物。在法术终止前，每当受术目标进行攻击检定或豁免检定时，可以额外掷一次 d4 并加在其结果上。
 升环施法效应：使用二环或更高法术位施展该法术时，你使用的法术位每比一环高一环，就可以多指定一个目标。</t>
@@ -2516,7 +2517,7 @@
 施法距离：60 尺
 法术成分：S
 持续时间：立即
-选择施法距离之内，一个未被穿戴或携带的，重量为 1 到 5 磅的物体。该物件将向着你选择的一个方向，以直线轨迹飞出。弹射物在落到地面前至多可以飞行 90 尺距离，若其在此过程中弹射物撞击到了固体表面则会提前停止运动。若弹射物即将撞上一个生物，该生物必须进行一次敏捷豁免尝试避开它。若豁免失败，弹射物将击中该生物并停止运动。不论弹射物击中了什么东西，弹射物和被弹射物击中的东西都将各受到 3d8 点钝击伤害。
+  选择施法距离之内，一个未被穿戴或携带的、重 1~5 磅的物件。该物件将向着你选择的一个方向，以直线轨迹飞出。弹射物在落到地面前至多可以飞行 90 尺距离，若其在此过程中弹射物撞击到了固体表面则会提前停止运动。若弹射物即将撞上一个生物，该生物必须进行一次敏捷豁免尝试避开它。若豁免失败，弹射物将击中该生物并停止运动。不论弹射物击中了什么东西，弹射物和被弹射物击中的东西都将各受到 3d8 点钝击伤害。
 升环施法效应：当你使用二环或更高的法术位施放该法术时，使用的法术位每高一环，你可以选择的物体重量上限便增加 5 磅，造成的伤害提高 1d8。</t>
         </is>
       </c>
@@ -2553,7 +2554,7 @@
 施法距离：30 尺
 法术成分：S、M（一撮沙子）
 持续时间：10 分钟
-你做一个使人平静的手势，在施法距离内，你选择最多 3 名你可以看见的自愿生物在法术持续时间中进入昏迷状态。如果生物受到伤害或者某人使用动作将他摇醒，对于那个目标法术会提前结束。如果目标在整个持续期间都保持昏迷，目标会得到一次短休息的好处，但是在完成一次长休息之前将不能再受到这个法术的影响。
+你做一个使人平静的手势，在施法距离内，你选择最多 3 名你可以看见的自愿生物在法术持续时间中进入昏迷状态。如果生物受到伤害或者某人使用动作将他摇醒，对于那个目标法术会提前结束。如果目标在整个持续期间都保持昏迷，目标会得到一次短休的好处，但是在完成一次长休之前将不能再受到这个法术的影响。
 升环施法效应：当你使用四环或更高的法术位施放该法术时，使用的法术位每高一环，你就可以多指定 1 个额外的自愿生物作为目标。</t>
         </is>
       </c>
@@ -3843,7 +3844,7 @@
 烂肉症Flesh   Rot。 患者的肌肤逐渐腐朽。患病生物进行魅力检定时具有劣势，并且具有所有伤害类型的伤害易伤。
 脑热症Mindfire。患者头脑发热。患病生物进行智力检定和智力豁免时具有劣势，并且其在战斗中视为受到困惑术 confusion效应影响。
 癫痫症Seizure。患者全身颤抖不止。患病生物进行敏捷检定和敏捷豁免时，以及发动基于敏捷的攻击检定时具劣势。
-恶心症Slimy   Doom。 患者开始不受控地流血。患病生物进行体质检定和体质豁免时具有劣势。另外每当该生物受到伤害时都会陷入震慑状态，直至其下一回合结束。</t>
+恶心症Slimy   Doom。   患者开始不受控地流血。患病生物进行体质检定和体质豁免时具有劣势。另外每当该生物受到伤害时都会陷入震慑状态，直至其下一回合结束。</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4191,7 @@
 施法距离：60 尺
 法术成分：V、S
 持续时间：专注，至多 1 分钟
-你在距离之内你能看到的地面上燃起一堆篝火。直到此法术终结，该魔法篝火会占满 5 立方尺的空间。当你施放此法术时，所有在篝火所在空间的生物必须通过一次敏捷豁免检定，否则受到 1d8 点伤害。当生物在一个回合中第一次进入篝火所在的空间，或在篝火所在的空间结束其回合时，其同样必须进行该豁免检定。
+你在距离之内你能看到的地面上燃起一堆篝火。直到此法术终结，该魔法篝火会占满 5 立方尺的空间。你施放此法术时，所有在篝火所在空间的生物必须通过一次敏捷豁免检定，否则受到 1d8 点火焰伤害。当生物在一个回合中第一次进入篝火所在的空间，或在篝火所在的空间结束其回合时，其同样必须进行该豁免检定。
 篝火可以点燃区域内未被穿戴或者携带的可燃物体。
 你到达 5 级时，该法术的伤害增加 1d8（变为 2d8）。11 级时再加 1d8（变为 3d8），17 级时再加 1d8（变为 4d8）。</t>
         </is>
@@ -4265,7 +4266,7 @@
 法术成分：V、S、M（黏土，灰尘，曼德拉草根，以上材料作为该法术的耗材，以及价值 1000gp 的镶嵌宝石的匕首）
 持续时间：立即
 说出复杂咒语的同时，你用一把镶嵌宝石的匕首刺穿自己，并受到不能被任何方式降低的 2d4 穿刺伤害。随后你将血液滴落在法术的其他成分上并接触它们，将它们转变为一种名为 人工生命体 Homunculus 的特殊构装体。
-人工生命体的数据参见《怪物图鉴》。它是你的忠实伙伴，并且会随着你死亡。每次你完成一次长休息，并且此时若人工生命体与你处于同一位面，你可以选择花费最多一半的生命骰，投掷每个骰子并加上你的体质调整值，之后你的最大生命值降低数字的总和，并且人工生命体的最大生命值和当前生命值都提升这个数字。这个过程可以让你的生命值降至不低于 1 点。你和人工生命体的生命值变化会在你完成下一次长休息时还原，在那之前你的最大生命降低效果不能被移除，除非你的人工生命体死亡。
+人工生命体的数据参见《怪物图鉴》。它是你的忠实伙伴，并且会随着你死亡。每次你完成一次长休，并且此时若人工生命体与你处于同一位面，你可以选择花费最多一半的生命骰，投掷每个骰子并加上你的体质调整值，之后你的最大生命值降低数字的总和，并且人工生命体的最大生命值和当前生命值都提升这个数字。这个过程可以让你的生命值降至不低于 1 点。你和人工生命体的生命值变化会在你完成下一次长休时还原，在那之前你的最大生命降低效果不能被移除，除非你的人工生命体死亡。
 同一时间你只能拥有一只人工生命体。如果你在你的人工生命体还存活时施展，法术将会失败。</t>
         </is>
       </c>
@@ -4417,7 +4418,7 @@
 法术成分：V、S、M（所创造物品的一小部分）
 持续时间：特殊
 你从堕影冥界取来一些暗影物质，并在施法距离内创造一个非活体的物件。你可以创造一个植物质（类似纺织品、绳索、木质等）的物件。也可以创造一个矿物质（类似石质、水晶、金属等）的物件。创造出来的物件大小必需在 5 立方尺内，且其形态与材质你必需曾经见过。
-法术的持续时间由所创造物件的材质决定。如果所创造物件由多种材质组合而成，则其存在时间取其中最短者。   ?   材质  持续时间   植物质vegetable matter  1 日   石质stone，水晶crystal  12 小时   贵金属precious metals  1 小时   宝石gems  10 分钟   精金adamantine，秘银mithral  1 分钟 
+法术的持续时间由所创造物件的材质决定。如果所创造物件由多种材质组合而成，则其存在时间取其中最短者。    材质  持续时间   植物质vegetable matter  1 日   石质stone，水晶crystal  12 小时   贵金属precious metals  1 小时   宝石gems  10 分钟   精金adamantine，秘银mithral  1 分钟 
 施展其他法术时，如果以这些创造物作为其材料成分将会使该法术施法失败。
 升环施法效应：使用六环或更高法术位施展该法术时，你使用的法术位每比五环高一环，创造物尺寸的立方边长就加大 5 尺。</t>
         </is>
@@ -4681,7 +4682,7 @@
 法术成分：V，S，M（一小块碎玛瑙与一滴施法者的血液，作为本法术的耗材）
 持续时间：专注，至多一分钟。
 该法术在施法距离内以你选择的一点为圆心创造一个球形范围。该圆形半径至多为40尺。区域内充斥着魔法黑暗与毁灭性的重力能量。
-法术持续时间内，球形区域内视为困难地形。一个拥有黑暗视觉的生物没法看透这片魔法黑暗，非魔法的光源无法点亮这片区域。该区域内没法发出声音，声音也没办法穿过该区域。任何完全处于该区域内的生物或物件免疫雷鸣伤害，并且生物完全处于该区域内时处于耳聋状态。在该法术的影响范围内没有办法施展需要语言成分的法术。
+法术持续时间内，球形区域内视为困难地形。一个拥有黑暗视觉的生物没法看透这片魔法黑暗，非魔法的光源无法点亮这片区域。该区域内没法发出声音，声音也没办法穿过该区域。任何完全处于该区域内的生物或物件免疫雷鸣伤害，并且生物完全处于该区域内时处于耳聋状态。在该法术的影响范围内没有办法施展包含言语成分的法术。
 任何在自己回合中第一次进入该区域的生物或在该区域内开始其回合的生物需要进行一次体质豁免。若豁免失败，该生物受到8d10点力场伤害，成功则只受到一半伤害。当一个生物的HP被这个法术降低到0时，该生物被解离。被解离的生物与其身上穿着的，携带着的一切，除了魔法物品外，都会化为一缕灰色的烟尘。</t>
         </is>
       </c>
@@ -6031,7 +6032,7 @@
 施法距离：300 尺
 法术成分：V
 持续时间：专注，至多 1 分钟
-选择距离内你能够看到的一个生物。黄色的魔法能量线缠绕着该生物。该目标必须通过一次力量豁免检定，否则其飞行速度（若有的话）在法术的持续时间内降为 0 尺。受到此法术影响的飞行中的生物以每回合 60 尺的速度安全降落，直到其撞到地面或法术终结。</t>
+选择距离内你能够看到的一个生物。黄色的魔法能量线缠绕着该生物。该目标必须通过一次力量豁免检定，否则其飞行速度（若有的话）在法术的持续时间内降为 0 尺。受到此法术影响的飞行中的生物以每轮 60 尺的速度安全降落，直到其撞到地面或法术终结。</t>
         </is>
       </c>
     </row>
@@ -6905,7 +6906,7 @@
 法术成分：V、S、M（一片白羽毛或一颗母鸡心）
 持续时间：专注，至多 1 分钟
 你制造一个目标最惧怕的幻象，并迫使 30 尺锥状区域内的所有生物进行一次感知豁免，豁免失败者将丢弃其所有持握物，并在法术持续时间内陷入恐慌。
-被法术恐慌的生物必须在其回合内执行疾走动作，并以此寻找最安全的路线远离施法者，直至其无路可走为止。如果该生物在施法者视线范围外结束其回合，则其可以再进行一次感知豁免，豁免成功则法术对该生物的效应终止。</t>
+被法术恐慌的生物必须在其回合内执行疾走动作，并以此寻找最安全的路线远离施法者，直至其无路可走为止。如果该生物结束其回合时位于一处使其视觉线中没有你的空间，则其可以再进行一次感知豁免，豁免成功则法术对该生物的效应终止。</t>
         </is>
       </c>
     </row>
@@ -7515,7 +7516,7 @@
 你在一只空闲的手上召唤出一把炽热的刀刃。该到刀刃的尺寸和形状近似于一把弯刀并在法术持续时间内维持存在。当你放下刀刃时其将消失不见，但你可以用一个附赠动作重新将其唤出。
 你可以用你的动作以该热刃发动一次近战法术攻击。若命中，则目标受到3d6点火焰伤害。
 烈焰刀向周围提供半径 10 尺的明亮光照，以及该范围外 10 尺的微光光照。
-升环施法效应：使用三环或更高法术位施展该法术时，你使用的法术位每比二环高两环，其伤害就增加 1d6。</t>
+升环施法效应：使用四环或更高法术位施展该法术时，你使用的法术位每比二环高两环，其伤害就增加 1d6。</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8816,7 @@
 其他法术效应Other Spell Effect。你可以在要塞的保护区域内布置你指定的下列魔法效应之一。 
  · 在四条走廊布置 舞光术dancing   lights   。你可以安排一个简单的灯光舞动程序，使其在铜墙铁壁法术持续时反复运作。
  · 在两个地点布置 魔嘴术magic   mouth  。
- · 在两个地点布置 臭云术stinking   clound   。其云雾显现在由你安排的位置。在铜墙铁壁法术持续时，即使其云雾被风吹散也会在 10 分钟后重新生成。
+ · 在两个地点布置 臭云术stinking   cloud   。其云雾显现在由你安排的位置。在铜墙铁壁法术持续时，即使其云雾被风吹散也会在 10 分钟后重新生成。
  · 在一条走廊或一个房间布置一个持续存在的 造风术gust   of wind   。
  · 在一个地点布置一个 暗示术suggestion  。你指定一个至多 5 尺的方状区域，任何进入或穿过该区域的生物将受到法术的精神暗示。
 整个保护区域辐射着魔法。对某个特定效应施展 解除魔法dispel magic   时，如果法术成功则移除该特定效应。
@@ -9046,7 +9047,7 @@
 你触碰一点并将神圣（或邪秽）的力量注入该点周围。区域半径至多 60 尺，若此区域内包含了已被另一个圣居术影响的区域，则此次施法失败。受法术影响的区域具有以下效应。
 首先，天界生物、元素生物、精类生物、邪魔和不死生物无法进入该区域，这些生物也不能对区域内的生物进行魅惑，恐慌或附身。任何被这些生物魅惑，恐慌或附身的生物只要进入该区域后将不再处于魅惑，恐慌或被附身的状态。你可以从上述生物类别中选择一种或更多，使之不受该效应影响。
 其次，你可以为该区域绑定一种额外效应。从下列效应选项中选择其一，或从 DM 提供的效应中选择其一生效。其中某些影响区域内生物的效应可以被设定为影响所有生物，影响追随某特定神明或领袖的生物，或是只影响特定生物种类（例如兽人或巨魔）。当一个可受影响生物在一个回合里首次进入该区域，或是在区域内开始其回合时，它可以进行一次魅力豁免。豁免成功则该生物无视此额外效果直至其离开该区域。
-胆量Couage。区域内的受影响生物不受恐慌。
+胆量Courage。区域内的受影响生物无法陷入恐慌状态。
 黑暗Darkness。区域内处于黑暗环境，普通光源以及比本法术施展法术位更低环阶法术所创造的光源均无法照亮该区域。
 昼明Daylight。区域内处于明亮光照，比本法术施展法术位更环节法术所创造的黑暗无法掩盖亮光。
 能量防护Energy   Protection。 区域内受影响生物对一种由你指定的伤害类型具有抗性，所选类型不包括钝击、穿刺和挥砍。
@@ -9613,7 +9614,7 @@
 施法距离：触及
 法术成分：V、S
 持续时间：专注，至多1小时
-你为你触碰的武器注入神圣的力量。直到法术结束之前，武器都会发散出 30 尺半径的明亮照明和额外 30 尺的微亮照明。此外，用这把武器击中时会造成额外 2d8 光耀伤害。武器在持续期间转变为魔法武器如果原本它并非。
+你为你触碰的武器注入神圣的力量。直到法术结束之前，武器都会发散出 30 尺半径的明亮照明和额外 30 尺的微亮照明。此外，用这把武器击中时会造成额外 2d8 光耀伤害。如果该武器原先是非魔法武器，则在法术持续时间内其将暂时转变为魔法武器。
 在你自己的回合中以一个附赠动作，你可以解散这个法术并使武器爆发出强光。在武器周围 30 尺内，每个由你选择的可见生物必须进行体质豁免检定。若豁免失败，生物将受到 4d8 光耀伤害，并且在 1 分钟内目盲。豁免成功将只承受一半伤害并不会目盲。在被目盲的生物每个回合结束时它都可以重新进行体质豁免检定，若成功将结束效果对自己的影响。</t>
         </is>
       </c>
@@ -10152,7 +10153,7 @@
 持续时间：专注，至多 1 小时
 说出黑暗的咒语，你从九狱之中召唤来魔鬼。你选择挑战等级在 6 或更低的一种魔鬼的类型，例如 猬魔Barbed Devils 或 须魔Bearded Devils 。魔鬼出现在施法距离内你可以看见的一处未被占据的空间。魔鬼在生命值降低至 0 或法术结束时消失。
 魔鬼对你和你的同伴是不友好的。为魔鬼投掷先攻，并且它拥有自己的回合。它处于 DM 的控制之下并在它的每个回合依据本性来进行行动。如果它认为自己能取胜它有可能会攻击你，或者它会诱惑你承诺一个邪恶行为来交换它的有限服务。DM 掌握这个生物的数据。
-在你的每个回合中，你都可以尝试向魔鬼发出口头命令（不需要任何动作）。如果命令可能产生的结果与它的愿望一致，尤其是可能会让你走向邪恶，魔鬼会遵从命令。否则，你必须进行魅力（欺瞒、威吓或说服）检定对抗它的感知（洞察）检定。如果你说出这个魔鬼的真名，你在这次检定中具有优势。如果你的检定失败，在法术余下的持续时间中魔鬼将免疫你的口头命令，虽然它仍旧可以选择执行。如果你的检定成功，魔鬼会执行你的命令直到完成，例如“攻击我的敌人”，“探索前面的房间”，或者是“将这个信息带给女王”。在那之后它返回向你报告自己已经完成。
+在你的每个回合中，你都可以尝试向魔鬼发出口头命令（不需要任何动作）。如果命令可能产生的结果与它的愿望一致，尤其是可能会让你走向邪恶，魔鬼会遵从命令。否则，你必须进行魅力（欺瞒、威吓或游说）检定对抗它的感知（洞察）检定。如果你说出这个魔鬼的真名，你在这次检定中具有优势。如果你的检定失败，在法术余下的持续时间中魔鬼将免疫你的口头命令，虽然它仍旧可以选择执行。如果你的检定成功，魔鬼会执行你的命令直到完成，例如“攻击我的敌人”，“探索前面的房间”，或者是“将这个信息带给女王”。在那之后它返回向你报告自己已经完成。
 如果你的专注在法术到达完整的持续时间之前中断，且魔鬼已经免疫了你的口头命令，那么它不会立即消失，而是在消失之前以它选择任何方式活动 3d6 分钟。
 如果你拥有某个特定的魔鬼邪符，并且它的挑战等级在法术允许的适当范围+1 里，你可以召唤那个魔鬼，它会遵从你的命令而你无需魅力检定。
 升环施法效应：当你使用六环或更高的法术位施放该法术时，使用的法术位每高一环，允许召唤的魔鬼挑战等级就+1。</t>
@@ -10302,7 +10303,7 @@
 施法距离：30 尺
 法术成分：V
 持续时间：专注，最长 1 小时
-在法术持续时间内，你或一个施法距离内的可见生物获得对心灵伤害的抗力，同时在智力、感知和魅力豁免检定上具有优势。
+在法术持续时间内，你或一个施法距离内的可见生物获得对心灵伤害的抗性，同时在智力、感知和魅力豁免检定上具有优势。
 升环施法效应：使用四环或更高法术位施展该法术时，你使用的法术位每比三环高 1 环，就可以多选择一个生物作为目标。而各目标之间距离不能超过 30 尺。</t>
         </is>
       </c>
@@ -11318,9 +11319,9 @@
         <is>
           <t>施法时间：1 动作
 施法距离：120 尺
-法术成分：V、S、M（漏斗形状的纸张或叶片）
+法术成分：V、S、M（折成漏斗状的纸张或叶片）
 持续时间：专注，至多 1 分钟
-大量的水出现在距离之内，你能看到的一点处，形成了 5 尺深、30 尺半径的大漩涡。该点必须处于地面或者水体表面。直到法术终结，该区域成为困难地形，所有在该区域开始其回合的生物必须通过一次力量豁免检定，否则收到 6d6 钝击伤害并被拉向中心 10 尺。</t>
+你指定施法距离之内可见的一点，大量的水在此出现，构成一个深达5尺、半径达30 尺的大漩涡。你选择的点必须处于地面或者水体表面。直到法术结束前，该区域成为困难地形，所有在该区域开始其回合的生物都必须进行一次力量豁免，豁免失败将受到 6d6 钝击伤害并被拉向中心 10 尺。</t>
         </is>
       </c>
     </row>
@@ -11589,7 +11590,7 @@
 施法距离：触及
 法术成分：V、S
 持续时间：1 分钟
-你接触一到三块小石块，向其中注入魔法的力量。你或其他人可以通过徒手或使用投石索来投掷小石块之一以进行一次远程法术攻击。若徒手投掷，其射程为 60 尺。若除你之外的其他人使用小石块进行攻击，攻击者在其攻击检定中加上你的施法属性调整值，而非攻击者的。若击中，目标收到 1d6+你的施法属性调整值点数的钝击伤害。无论击中与否，在那块石块上的魔法都会终结。
+你接触一到三块小石块，向其中注入魔法的力量。你或其他人可以通过徒手或使用投石索来投掷小石块之一以进行一次远程法术攻击。若徒手投掷，其射程为 60 尺。若除你之外的其他人使用小石块进行攻击，攻击者在其攻击检定中加上你的施法属性调整值，而非攻击者的。若击中，目标受到 1d6+你的施法属性调整值点 钝击伤害。无论击中与否，在那块石块上的魔法都会终结。
 若你再次释放此法术，此法术先前释放时，在受到影响的石块上的效果会提前终结。</t>
         </is>
       </c>
@@ -11931,10 +11932,10 @@
 施法距离：30 尺
 法术成分：V、S、M（一个由陶土雕塑成的手的模型）
 持续时间：专注，至多 1 分钟
-你选择距离内，你能看见的，地面上的一处 5 平方尺，未被占据的空间。一只由坚实的土壤形成的中型手掌出现在那里，并伸向它周围 5 尺内，一个你能看见的生物。该目标必须进行一次力量豁免检定。若检定失败，该生物受到 2d6 点伤害并在法术的持续时间内被束缚。
-以一个动作，你可以令手掌挤压被束缚的生物，其必须进行一次力量豁免检定。若检定失败，其受到 2d6 点钝击伤害。检定成功则只受到上述伤害的一半。
-要逃离束缚，被束缚的生物可以进行一次力量检定来对抗你的法术豁免 DC。若成功，该生物得以逃脱，不再被手掌束缚。
-以一个动作，你可以令手掌伸向一个其他生物，或移动到距离之内一处未被占据的其他空间。这种指令会让手掌放开被它束缚的生物。</t>
+你选择距离内地面上你可见的一处5平方尺的未被占据空间。一只由坚实的土壤形成的中型手掌从该地面位置升起，并袭向它周围5尺范围内的一个你可见的生物。该生物必须进行一次力量豁免。豁免失败时，该生物将受到2d6点钝击伤害，且在法术的持续时间内陷入 束缚Restrained 状态。
+以一个动作，你可以指挥手掌挤压被手掌束缚的生物，其必须进行一次力量豁免。豁免失败时，该生物将再受到2d6点钝击伤害。豁免成功则只受半数伤害。
+被手掌束缚的生物可以尝试用其动作，进行一次力量检定来对抗你的法术豁免DC来逃离束缚。若该生物对抗成功，它将得以逃脱，不再被手掌束缚。
+以一个动作，你可以指挥手掌伸向一个其他生物，或指挥手掌移动到施法距离之内另一处未被占据的空间中。这两种指令会让手掌放开它目前束缚着的生物。</t>
         </is>
       </c>
     </row>
@@ -12498,11 +12499,13 @@
 施法距离：自身
 法术成分：V、S
 持续时间：1 分钟
-三个你自身的幻象分身出现在你的位置上。直至法术终止前，分身都会随你移动，并模仿你的动作和位置变换，使人无法追踪判断哪一个是你的真身。分身存在时，你可以用动作来解散这些幻象分身。
-在法术持续时间内，每当一个生物以你为攻击目标时，掷一次d20决定该次攻击击中的是否其中一个分身。
-如果你有三个分身，则你必须掷出 6 或更高数值才能使目标的攻击命中分身。如果你有两个分身，则你必须掷出 8 或更高数值。如果你有一个分身，则你必须掷出 11 或更高数值。
-分身的 AC 等于 10+你的敏捷调整值。单次攻击命中分身时相应分身立即被摧毁。分身会被一发命中它的攻击摧毁，且无视所有其他的伤害和效应。三个分身全部被毁后该法术终止。
-如果一个生物无法视物，或者它可以依靠视觉之外的其它感官（例如盲视），又或者它可以如同真实视觉一样洞察幻象，则该法术无法影响该生物。</t>
+三个与你自身一模一样的幻象分身出现在你所处的空间中。直至法术终止前，所有分身都会随你移动、模仿你的动作、并不断地变换位置，使人无法追踪判断哪个是你的分身哪个是你的真身。分身存在期间，你可以用动作来消解这些幻象分身。
+在法术持续时间内，每当有生物以你为目标发动攻击时，其攻击都有概率改为以三个分身之一为目标，你掷一枚d20：
+如果你有三个分身，则你必须掷出 6 或更高数值才能使此次攻击的目标改为分身；
+如果你有两个分身，则你必须掷出 8 或更高数值；
+    如果你有一个分身，则你必须掷出 11 或更高数值。
+   每个分身的AC都等于10+你的敏捷调整值。如果一次攻击命中了分身，该分身将立即被摧毁。分身只会被命中它的攻击摧毁，其无视所有其他的伤害和效应。三个分身全部被毁后此法术提前终止。
+如果一个生物无法视物、它可以依靠视觉之外的其它感官视物（例如盲视），又或者它可以看破幻象（例如真实视觉），则该生物将不受此法术影响。</t>
         </is>
       </c>
     </row>
@@ -13842,7 +13845,7 @@
  · 你立即使一个不大于 1 立方尺的物件变得清洁或肮脏。
  · 你立即使一个不大于 1 立方尺的非活体物质变得冰冷、温暖或对其调味，其效应持续 1   小时。
  · 你在一个物件或一个表面上创造一块色斑，或者一个记号，又或者一个标志，其效应持续 1   小时。
- · 你在你手中创造出一个非魔法的 饰品trinket 或一个幻术的图像，其大小不能超过你的手掌大小，它会存在持续至下个你的回合结束为止。（注：可以生成什么饰品请参考装备的饰品Trinkets一章。魔法伎俩并不允许施法者随意创造出什么“面前大门的钥匙”、“盗贼工具”、“三愿戒指”之类的东西，更不可能创造出回生术所需的300gp钻石耗材。）
+ ·   你在你手中创造出一个非魔法的小饰品或一个幻术的图像，其大小不能超过你的手掌大小，它会存在持续至下个你的回合结束为止。（注：此处的“小饰品”是Trinket，可以参考装备的饰品Trinkets一章的内容。根据设计师的说法，其本质具体取决于你的DM。）
 如果你多次施展该法术，则可以同时维持至多三个不同的非即时效应，并且可以用一个动作解散其中一种效应。</t>
         </is>
       </c>
@@ -14751,7 +14754,7 @@
 持续时间：立即
 你触碰一个类人生物的遗体或遗体的一部分，以此创造出一具新的成年身体，并呼唤该生物的灵魂进入此新身躯。该生物死亡时间必须不超过 10 日。此外，如果目标生物的灵魂此时不能或者不愿意完成该过程，则法术失败。
 该法术要为目标生物创造出一具新的身体，因此很可能导致该生物的种族发生变动。DM 可以投一个 d100 来判定该生物以何种形态复生，也可以直接由 DM 选择一种形态。 ??    d100  种族     d100  种族   01~04  龙裔     47~52  岩侏儒   05~13  丘陵矮人     53~56  半精灵   14~21  山地矮人     57~60  半兽人   22~25  黑暗精灵     61~68  轻足半身人   26~34  高等精灵     69~76  强魄半身人   35~42  木精灵     77~96  人类   43~46  林侏儒     97~00  提夫林
-转生后的生物保留其前生记忆和经验。受术者保留原形的一切能力，不过其种族特性将以新种族的相应特性做更替。</t>
+转生后的生物保留其前生记忆和经验。受术者保留原形的一切能力，不过其种族特质将以新种族的相应特性做更替。</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15233,7 @@
         <is>
           <t>施法时间：10 分钟
 施法距离：自身
-法术成分：V、S、M（一个至少价值 1000gp 的聚焦镜，例如水晶球、银镜、圣水盆）
+法术成分：V、S、M（一个至少价值 1000gp 的法器，例如水晶球、银镜、圣水盆）
 持续时间：专注，最多 10 分钟
 你能看见和听见一个和你处于同一存在位面上的生物。目标生物必须进行一次感知豁免；该豁免的调整值与你对目标的了解程度有关，也与你和目标之间的物理联系程度有关。如果目标知道你在施展该法术，而它又愿意被你观察，则它可以自愿放弃该豁免。   了解程度 豁免调整值  联系程度 豁免调整值  二手信息（你曾经听说过受术者） +5  肖像或图像 -2  直接信息（你曾经见过受术者） +0  所有物或衣物 -4  熟悉（你对受术者很了解） -5  身体部位，头发，指甲或类似物件 -10 
 如果对方豁免成功，则目标不受该法术影响，并且在 24 小时内你不能尝试探知同一个目标。
@@ -15346,7 +15349,7 @@
 持续时间：8 小时
 该法术允许你修改施法距离内你能看见的任意数量生物的外观。你对指定的每个目标生物分别赋予一个虚假的新外貌。不愿意受该法术影响的目标可以进行一次魅力豁免，豁免成功则不受该法术影响。
 该法术能改变生物的物理外观，也能伪装出服装、护甲、武器和装备。肉眼看来目标的身高可以有 1 尺的增减，体态可胖可瘦可匀称。但是你不能改变身体的形状，所以目标变形的样子必须有四肢或类似的生理结构。此外，你可以随意改变其他的外观特征。该法术一直持续至持续时间结束，不过你可以用一个动作提前将其解除。
-此法术产生的变化无法应对物理检查。比如，你用此法术添了一顶帽子，那么现实物件会穿过帽子，且触碰帽子的人会摸不到任何东西或摸到的是目标的头和头发。若你用该法术让目标变得消瘦，别人用手触碰该目标时，看起来就像用手摸着空气。
+此法术产生的变化无法应对物理检查。比如，你用此法术添了一顶帽子，那么现实物件会穿过帽子，且触碰帽子的人会摸不到任何东西或摸到的是目标的头和头发。若你用该法术让目标变得消瘦，别人用手触碰该目标时，会在看似还在半空中的时候碰到目标。
 一个生物可以使用其动作仔细观察一个目标，并进行一次对抗法术豁免 DC 的智力（调查）检定。检定成功则观察者将意识到目标进行了伪装。</t>
         </is>
       </c>
@@ -15578,7 +15581,7 @@
 你在法术持续时间内变形为另一个生物。你的新形态可以是任何挑战等级小于等于你等级的生物。该类生物不能是构装生物或不死生物，而且你必须见过该类生物至少一次。你变形成该类生物中一个普通的个体，没有任何职业等级，也不具有施法特性。
 你的游戏资料以目标生物的数据代替，但你的阵营，以及智力、感知和魅力值不变。你同样保留你的所有技能和豁免的熟练项，并且还能获得目标生物的技能和豁免的熟练项。如果目标生物和你都具有某熟练项，且目标生物在这该项的熟练加值比你高，则你在该项检定时使用较高的熟练加值而非自己的原加值。你不能使用新形态的传奇动作和巢穴动作。
 你的生命值和生命骰变成和新形态一样。当你变回原形时，你的生命值恢复变形前的状态。如果你因为生命值降至 0 以下而变回原形，则你的正常形态将承受所有溢出的伤害。只要该伤害不足以把你在正常形态下的生命值也降至 0，你就不会因此陷入昏迷。
-你依然可以获得你的职业特性、种族特性和其他特性带来的增益，前提是你的新形态在物理上必须能够做到这些事。你不能使用任何之前享有的特殊感官（例如黑暗视觉），除非你的新形态也有这种感官。如果你变形成的生物通常不能说话，那么你也不能说话。
+你依然可以获得你的职业特性、种族特质和其他特性带来的增益，前提是你的新形态在物理上必须能够做到这些事。你不能使用任何之前享有的特殊感官（例如黑暗视觉），除非你的新形态也有这种感官。如果你变形成的生物通常不能说话，那么你也不能说话。
 变形时，你可以选择你的装备掉到地上、融入新的形态中还是继续着装。继续着装的装备依然拥有正常情况下的功能。DM 要根据新形态的外形和大小来判断你在新形态下是否能够继续着装你身上的每件装备。你的装备不会改变形状和尺寸以适应你的新形态，而新形态下不能着装的装备只能掉到地上或融入新的形态中。融入新形态的装备将不会产生任何效应。
 在法术持续时间内，你可以用你的动作转换为另一形态。重新变形的规则与限制与第一次变形相同，只有一点不同：如果新形态的生命值比你当前的形态要多，那么你的生命值将保持为当前值不变。</t>
         </is>
@@ -15837,7 +15840,7 @@
 施法距离：120 尺
 法术成分：V、S
 持续时间：专注，至多 10 分钟
-你指定施法距离内一点，以该点为中心半径 20 尺的球状区域在法术持续时间内将无法产生任何声音，且外界的声音也无法进入该区域内。任何完全位于该区域内的生物和物件都将免疫雷鸣伤害，而任何生物在完全位于该区域内时都将陷入耳聋。此外，该区域内无法施展需要言语成分的法术。</t>
+你指定施法距离内一点，以该点为中心半径 20 尺的球状区域在法术持续时间内将无法产生任何声音，且外界的声音也无法进入该区域内。任何完全位于该区域内的生物和物件都将免疫雷鸣伤害，而任何生物在完全位于该区域内时都将陷入耳聋。此外，该区域内无法施展包含言语成分的法术。</t>
         </is>
       </c>
     </row>
@@ -17087,7 +17090,7 @@
 持续时间：专注，至多 1 小时
 你唤来一个野兽灵魄。其在施法距离内你可见的一个未占据位置化为实体。这一实体使用下面的 野兽灵魄Bestial Spirit 的数据。施展此法术时，从空、地或水中选择一个环境。此生物的外形属于你所选环境的一种动物，其资料表中的部分特性也受此影响。当其生命值降至 0 或法术结束时，生物消失。
 该生物在法术持续时间内对你和你的同伴们友好。在战斗中，该生物使用你的先攻，但在你回合结束后立即行动。它遵从于你的口头指令（无需任何动作）。如果你不发令，它将执行回避动作并远离危险。
-升环施法效应：使用五环或更高法术位施展该法术时，该生物数据中使用更高的法术环数。
+升环施法效应：使用三环或更高法术位施展该法术时，该生物数据中使用更高的法术环数。
 野兽灵魄Bestial   Spirit
 小型野兽，无阵营
 AC：11+法术环阶   (天生护甲)
@@ -18498,8 +18501,8 @@
 施法距离：90 尺
 法术成分：V
 持续时间：立即
-你传送到施法距离内一处未被占据的可见空间。在你消失的瞬间，雷鸣般的爆发声响起。在你离开的空间周围 10 尺内的每个生物必须进行体质豁免检定，失败将受到 3d10 雷鸣伤害，成功则只承受一半。这道法术会发出方圆 300 尺内都能听见的雷霆巨响。
-你可以带走物体只要它们没有超过你能承载的重量。你也可以传送一个与你体型相仿或是比你更小的自愿生物，而它所携带的装备也不能超过他的负重。这个生物必须在你施展法术时处于 5 尺内，并且在你的目的地周围 5 尺必须要有一个未被占据的空间以让它到达；否则这个生物将被留下。
+你可以将你自己传送至施法距离内一处未被占据的可见空间。在你消失的瞬息之后，雷霆般的爆发声响起。在你原处空间周围10尺范围内的每个生物必须进行一次体质豁免，豁免失败者将受到3d10点雷鸣伤害，豁免成功则只受半数伤害。300尺范围内都能听见的这声雷鸣。
+此外，传送的同时你可以带走物件（只要它们没有超过你能承载的重量），也可以再传送一个与你体型相仿或是比你更小的自愿生物（它所携带的装备也不能超过他的负重）。在你施展此法术时，你要传送的生物必须身处处你周围5尺范围内，且在你的目的地周围5尺范围内必须要有一处未被占据的空间以供让它一起传送；否则这个生物将被留下。
 升环施法效应：当你使用四环或更高的法术位施放该法术时，使用的法术位每高一环，伤害就会增加 1d10。</t>
         </is>
       </c>
@@ -19832,7 +19835,7 @@
 施法距离：30 尺
 法术成分：V、S、M（一个软木塞）
 持续时间：1 小时
-使受术者行走于任何液体表面时（例如流水、酸液、泥浆、雪地、流沙、熔岩）都如同行走在无伤害性的实体地面上。（但走在熔岩上的生物仍会因高热而受伤）。你可以将此能力赋予施法距离内你能看见的至多十个自愿生物，并使其在法术持续时间内拥有该能力。
+此法术使受术者行走于任何液体表面时（例如流水、酸液、泥浆、雪地、流沙、熔岩）都如同行走在无伤害性的实体地面上。（但走在熔岩上的生物仍会因高热而受伤）。你可以将此能力赋予施法距离内你能看见的至多十个自愿生物，并使其在法术持续时间内拥有该能力。
 如果你选择一个浸没在水中的生物作为该法术的目标，则受术者将会以每轮 60 尺的速度上升，直至浮上液面。</t>
         </is>
       </c>
@@ -20060,7 +20063,7 @@
 施法距离：120 尺
 法术成分：V、S、M（一把小扇和一根稀有生物的羽毛）
 持续时间：专注，至多 1 分钟
-指定施法距离内地面上一点并从中升起了一道烈风形成的墙壁。你可以造出长度至多 50 尺、高度至多 15 尺、厚度至多 1 尺的风墙。你可以自由塑造该墙的形状，不过它必须沿着地面形成一条连续的轨道。风墙持续存在至法术终止。
+你指定施法距离内地面上一点并从中升起了一道烈风形成的墙壁。你可以造出长度至多 50 尺、高度至多 15 尺、厚度至多 1 尺的风墙。你可以自由塑造该墙的形状，不过它必须沿着地面形成一条连续的轨道。风墙持续存在至法术终止。
 风墙出现时，所有位于风墙区域内的生物必须进行一次力量豁免。豁免失败者，将受到 3d8 点钝击伤害，豁免成功则伤害减半。
 烈风可以阻隔浓雾、烟尘和其他气体。体型为小型或更小的飞行生物或物件无法飞过风墙。重量轻的物质带进风墙中时将被向上吹飞。对墙后目标射出的箭、矢和其他普通飞行物会被朝上吹走而直接判为未命中（巨人或攻城器械投出的巨石和类似的飞行物不受影响）。处于气化形态的生物无法穿过风墙。</t>
         </is>
@@ -20254,8 +20257,8 @@
 施法距离：5尺
 法术成分：V
 持续时间：立即
-你和你身边 5 尺内的至多五个自愿生物一起瞬间传送到一个你事先设置好的避难所。你和与你一起传送的生物将出现在你准备避难所时指定的地点（见下）旁边最近的未被占据位置。如果你在施放法术前没有事先准备好避难所，则该法术将不产生任何效应。
-设置避难所时，你必须身处一个你所信仰神的神庙或与该神密切相关的地点，然后在该处施展此法术。如果你试图在一个并不供奉你所信仰神的地方施展此法术，则该法术将不产生任何效应。</t>
+你和你身边 5 尺内的至多五个自愿生物一起瞬间传送到一个你事先设置好的圣坛。你和与你一起传送的生物将出现在你准备圣坛时指定的地点（见下）旁边最近的未被占据位置。如果你在施放法术前没有事先准备好圣坛，则该法术将不产生任何效应。
+设置圣坛时，你必须身处一个你所信仰神的神庙或与该神密切相关的地点，然后在该处施展此法术。如果你试图在一个并不供奉你所信仰神的地方施展此法术，则该法术将不产生任何效应。</t>
         </is>
       </c>
     </row>
